--- a/predim.xlsx
+++ b/predim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamienCM\Desktop\S8\constru\projet_constru_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD73798F-809F-4097-AEF9-74DA8AD370D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7096B8A-BDCB-4C02-A401-8234671C1F91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23E1D9DF-2C04-49B7-A416-EF09900865C2}"/>
+    <workbookView xWindow="17025" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{23E1D9DF-2C04-49B7-A416-EF09900865C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Partie 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>Donnee</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Verin choisit :</t>
+  </si>
+  <si>
+    <t>actionneur</t>
   </si>
 </sst>
 </file>
@@ -833,15 +836,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -862,15 +856,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -907,32 +892,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1306,8 +1289,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,81 +1301,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="23">
         <v>9.81</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="29">
         <f>SQRT(2*B4*B5*SIN(RADIANS(B7)))</f>
         <v>1.5960631928410074</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="30" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1406,13 +1389,13 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1425,13 +1408,13 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1444,78 +1427,78 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>3.6349999999999998</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="23">
         <f>F4</f>
         <v>1.5960631928410074</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="29">
         <f>B8*B9/B10</f>
         <v>58.016897059770614</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="26">
         <v>0.1</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="L10" s="63"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1527,7 +1510,7 @@
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1554,7 +1537,7 @@
       <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1580,13 +1563,13 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="18"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1598,13 +1581,13 @@
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="16"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1614,31 +1597,31 @@
         <v>3</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="16"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>250</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1650,7 +1633,7 @@
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1675,7 +1658,7 @@
         <v>0.3</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="41" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1693,10 +1676,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1704,7 +1687,7 @@
         <f>B4*F18^2/2*(SIN(RADIANS(B17))-B18*COS(RADIANS(B17)))+F17*F18</f>
         <v>0.43171339668867764</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1712,572 +1695,574 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="29" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="12" t="str">
+      <c r="F20" s="9" t="str">
         <f>IF(F19*B23&lt;B24,"Oui","Non")</f>
         <v>Non</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="44" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="42"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="42"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="42"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="36">
         <v>0.3</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="36">
         <f>INT(B5*1000/B11)</f>
         <v>14</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="42"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="36">
         <v>6</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="36">
         <f>B29/B30</f>
         <v>4</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="42"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="36">
         <v>1.3</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="36">
         <f>((B27+B8)*F27+(F26*B8*SIN(RADIANS(B7))*B4)*B26)*B28</f>
         <v>59.824856565794285</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="42"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="36">
         <v>2</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="36">
         <f>B29</f>
         <v>2</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="42"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="45">
         <v>0.5</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="45">
         <f>2*B11</f>
         <v>360</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="I30" s="42"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="65" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="41"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="35"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="41"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="41"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8" t="s">
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="41"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="35"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="42"/>
-      <c r="J35" s="41"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="37">
         <v>10</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="36">
         <f>B8*(B4+B36)</f>
         <v>72.009349999999998</v>
       </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="57" t="s">
+      <c r="G36" s="36"/>
+      <c r="H36" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="41"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="36">
         <v>10</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="36">
         <f>B8*B37/B38</f>
         <v>121.16666666666666</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="57" t="s">
+      <c r="G37" s="36"/>
+      <c r="H37" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="42"/>
-      <c r="J37" s="41"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="35"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="35">
         <v>0.3</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="35">
         <f>(F37+F36)*B39</f>
         <v>251.12882166666668</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="49" t="s">
+      <c r="G38" s="35"/>
+      <c r="H38" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="51">
+      <c r="B39" s="45">
         <v>1.3</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="E39" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="42">
+      <c r="B40" s="36">
         <v>0.85</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="35">
         <f>SQRT((F38*PI())/(4*(1-B40)*B41))</f>
         <v>113.93125147819184</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="H40" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="61">
+      <c r="B41" s="55">
         <v>0.1013</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="35">
         <f>PI()*F40^2/4</f>
         <v>10194.727392076826</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="H41" s="49" t="s">
+      <c r="H41" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="60">
+      <c r="B42" s="54">
         <v>8042.48</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="56" t="s">
         <v>92</v>
       </c>
       <c r="F42" s="7" t="str">
         <f>IF(F41&lt;B42,"Oui","Non")</f>
         <v>Non</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="59" t="s">
+      <c r="G42" s="54"/>
+      <c r="H42" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="E34:H34"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A23:H23"/>
   </mergeCells>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Non"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/predim.xlsx
+++ b/predim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamienCM\Desktop\S8\constru\projet_constru_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7096B8A-BDCB-4C02-A401-8234671C1F91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC76EB3-2114-4EE3-A462-6C2DC51078CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{23E1D9DF-2C04-49B7-A416-EF09900865C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23E1D9DF-2C04-49B7-A416-EF09900865C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Partie 1" sheetId="1" r:id="rId1"/>
@@ -1289,8 +1289,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="F11" s="7">
         <f>3/2*F9*B13/B12/B14^2</f>
-        <v>79.113950536050837</v>
+        <v>68.125901850488219</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -1557,8 +1557,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2">
-        <f>2*B11</f>
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
@@ -2240,15 +2239,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="E24:H24"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
   </mergeCells>
   <conditionalFormatting sqref="F12">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">

--- a/predim.xlsx
+++ b/predim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamienCM\Desktop\S8\constru\projet_constru_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC76EB3-2114-4EE3-A462-6C2DC51078CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F86795-546E-44B2-8D72-FC85DFD18CDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23E1D9DF-2C04-49B7-A416-EF09900865C2}"/>
   </bookViews>
@@ -892,6 +892,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,15 +908,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1289,8 +1289,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,30 +1301,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="61" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -1733,31 +1733,31 @@
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="61" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1956,32 +1956,32 @@
       <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="65"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
       <c r="I33" s="36"/>
       <c r="J33" s="35"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="61" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="62"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
       <c r="I34" s="36"/>
       <c r="J34" s="35"/>
     </row>
@@ -2030,8 +2030,8 @@
         <v>80</v>
       </c>
       <c r="F36" s="36">
-        <f>B8*(B4+B36)</f>
-        <v>72.009349999999998</v>
+        <f>B8*(B4+B36)*B39</f>
+        <v>144.0187</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="51" t="s">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F38" s="35">
         <f>(F37+F36)*B39</f>
-        <v>251.12882166666668</v>
+        <v>530.37073333333331</v>
       </c>
       <c r="G38" s="35"/>
       <c r="H38" s="43" t="s">
@@ -2099,7 +2099,7 @@
         <v>28</v>
       </c>
       <c r="B39" s="45">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>66</v>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F40" s="35">
         <f>SQRT((F38*PI())/(4*(1-B40)*B41))</f>
-        <v>113.93125147819184</v>
+        <v>165.57103514451367</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>34</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F41" s="35">
         <f>PI()*F40^2/4</f>
-        <v>10194.727392076826</v>
+        <v>21530.722786754097</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>91</v>
@@ -2239,15 +2239,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
   </mergeCells>
   <conditionalFormatting sqref="F12">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">

--- a/predim.xlsx
+++ b/predim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamienCM\Desktop\S8\constru\projet_constru_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F86795-546E-44B2-8D72-FC85DFD18CDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A276B006-55B0-42D5-AC61-B0B94C143120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23E1D9DF-2C04-49B7-A416-EF09900865C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
   <si>
     <t>Donnee</t>
   </si>
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>actionneur</t>
+  </si>
+  <si>
+    <t>Prehenseur choisit</t>
+  </si>
+  <si>
+    <t>SGM 50 G1/4-IG</t>
+  </si>
+  <si>
+    <t>Schmalz</t>
   </si>
 </sst>
 </file>
@@ -827,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -909,6 +918,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1289,8 +1304,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,7 +1863,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="36">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>66</v>
@@ -1861,7 +1876,7 @@
       </c>
       <c r="F28" s="36">
         <f>((B27+B8)*F27+(F26*B8*SIN(RADIANS(B7))*B4)*B26)*B28</f>
-        <v>59.824856565794285</v>
+        <v>92.038240870452739</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>25</v>
@@ -2205,9 +2220,15 @@
       <c r="A43" s="6"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
+      <c r="D43" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>104</v>
+      </c>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
@@ -2239,15 +2260,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="F12">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
